--- a/data/trans_orig/P36_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09903628-0FDC-4898-9FA8-7E25314C0F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9075331A-A4E9-4634-A044-0E0FA78B055E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1CA72BE8-877E-4CF0-B859-23B8C5DBDDE3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{303D3608-87D2-4741-8B7E-FB2B9750AF45}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6604E917-6BE0-4412-96C9-7533B6CAC3A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDFC5DE-32C3-4C06-9F2E-19EC502A1A46}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P36_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36_R2-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9075331A-A4E9-4634-A044-0E0FA78B055E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DBCAA75-5FB6-412A-A3AF-546DFA59B106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{303D3608-87D2-4741-8B7E-FB2B9750AF45}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{870466B8-C867-41B0-AD5C-E1FDDF129FD5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>baja</t>
@@ -74,28 +74,28 @@
     <t>50,45%</t>
   </si>
   <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
   </si>
   <si>
     <t>52,4%</t>
   </si>
   <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
   </si>
   <si>
     <t>51,54%</t>
   </si>
   <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
   </si>
   <si>
     <t>0.0</t>
@@ -104,202 +104,202 @@
     <t>49,55%</t>
   </si>
   <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
   </si>
   <si>
     <t>47,6%</t>
   </si>
   <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
   </si>
   <si>
     <t>48,46%</t>
   </si>
   <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>63,56%</t>
   </si>
   <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
   </si>
   <si>
     <t>63,72%</t>
   </si>
   <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
   </si>
   <si>
     <t>63,64%</t>
   </si>
   <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
   </si>
   <si>
     <t>36,44%</t>
   </si>
   <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
   </si>
   <si>
     <t>36,28%</t>
   </si>
   <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
   </si>
   <si>
     <t>36,36%</t>
   </si>
   <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>73,08%</t>
   </si>
   <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
   </si>
   <si>
     <t>70,13%</t>
   </si>
   <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
   </si>
   <si>
     <t>71,59%</t>
   </si>
   <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
   </si>
   <si>
     <t>26,92%</t>
   </si>
   <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
   </si>
   <si>
     <t>29,87%</t>
   </si>
   <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
   </si>
   <si>
     <t>28,41%</t>
   </si>
   <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>69,86%</t>
   </si>
   <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
   </si>
   <si>
     <t>59,52%</t>
   </si>
   <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
   </si>
   <si>
     <t>64,14%</t>
   </si>
   <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
   </si>
   <si>
     <t>30,14%</t>
   </si>
   <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
   </si>
   <si>
     <t>40,48%</t>
   </si>
   <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
   </si>
   <si>
     <t>35,86%</t>
   </si>
   <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,79 +308,79 @@
     <t>67,05%</t>
   </si>
   <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
   </si>
   <si>
     <t>66,48%</t>
   </si>
   <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
   </si>
   <si>
     <t>66,74%</t>
   </si>
   <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
   </si>
   <si>
     <t>32,95%</t>
   </si>
   <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
   </si>
   <si>
     <t>33,52%</t>
   </si>
   <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
   </si>
   <si>
     <t>33,26%</t>
   </si>
   <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
   </si>
   <si>
     <t>68,47%</t>
   </si>
   <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
   </si>
   <si>
     <t>65,02%</t>
   </si>
   <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
   </si>
   <si>
     <t>66,63%</t>
   </si>
   <si>
-    <t>62,85%</t>
+    <t>63,03%</t>
   </si>
   <si>
     <t>68,28%</t>
@@ -389,19 +389,19 @@
     <t>31,53%</t>
   </si>
   <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
   </si>
   <si>
     <t>34,98%</t>
   </si>
   <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
   </si>
   <si>
     <t>33,37%</t>
@@ -410,7 +410,7 @@
     <t>31,72%</t>
   </si>
   <si>
-    <t>37,15%</t>
+    <t>36,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDFC5DE-32C3-4C06-9F2E-19EC502A1A46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77341823-266D-4649-8CC5-76B9648E4EAC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1337,7 +1337,7 @@
         <v>713</v>
       </c>
       <c r="N11" s="7">
-        <v>552996</v>
+        <v>552997</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1388,7 +1388,7 @@
         <v>2320</v>
       </c>
       <c r="N12" s="7">
-        <v>1946670</v>
+        <v>1946671</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1751,7 +1751,7 @@
         <v>5453</v>
       </c>
       <c r="N19" s="7">
-        <v>4491206</v>
+        <v>4491205</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>113</v>
@@ -1853,7 +1853,7 @@
         <v>8242</v>
       </c>
       <c r="N21" s="7">
-        <v>6740442</v>
+        <v>6740441</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
